--- a/IG-Publisher/output/StructureDefinition-PractitionerRole.xlsx
+++ b/IG-Publisher/output/StructureDefinition-PractitionerRole.xlsx
@@ -542,45 +542,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="15.6484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="15.8515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/IG-Publisher/output/StructureDefinition-PractitionerRole.xlsx
+++ b/IG-Publisher/output/StructureDefinition-PractitionerRole.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="239">
   <si>
     <t>Path</t>
   </si>
@@ -146,20 +146,23 @@
     <t>*</t>
   </si>
   <si>
-    <t>A resource with narrative, extensions, and contained resources</t>
-  </si>
-  <si>
-    <t>A resource that includes narrative, extensions, and contained resources.</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
+    <t>Roles/organizations the practitioner is associated with</t>
+  </si>
+  <si>
+    <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
+    <t>PRD (as one example)</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>ServiceSiteProvider</t>
   </si>
   <si>
     <t>PractitionerRole.id</t>
@@ -326,16 +329,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -385,6 +378,390 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner role record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner role record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>STF-7</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PractitionerRole.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period during which the practitioner is authorized to perform in these role(s)</t>
+  </si>
+  <si>
+    <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
+  </si>
+  <si>
+    <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>PRD-8/9 / PRA-5.4</t>
+  </si>
+  <si>
+    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
+  </si>
+  <si>
+    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization</t>
+  </si>
+  <si>
+    <t>Practitioner that is able to provide the defined services for the organization.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization where the roles are available</t>
+  </si>
+  <si>
+    <t>The organization where the Practitioner performs the roles associated.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>PractitionerRole.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Roles which this practitioner may perform</t>
+  </si>
+  <si>
+    <t>Roles which this practitioner is authorized to perform for the organization.</t>
+  </si>
+  <si>
+    <t>A person may have more than one role.</t>
+  </si>
+  <si>
+    <t>Need to know what authority the practitioner has - what can they do?</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The role a person plays representing an organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+  </si>
+  <si>
+    <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.specialty</t>
+  </si>
+  <si>
+    <t>Specific specialty of the practitioner</t>
+  </si>
+  <si>
+    <t>Specific specialty of the practitioner.</t>
+  </si>
+  <si>
+    <t>Specific specialty associated with the agency.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>PRA-5</t>
+  </si>
+  <si>
+    <t>.player.HealthCareProvider[@classCode = 'PROV'].code</t>
+  </si>
+  <si>
+    <t>./Specialty</t>
+  </si>
+  <si>
+    <t>PractitionerRole.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>The location(s) at which this practitioner provides care</t>
+  </si>
+  <si>
+    <t>The location(s) at which this practitioner provides care.</t>
+  </si>
+  <si>
+    <t>.performance.ActDefinitionOrEvent.ServiceDeliveryLocation[@classCode = 'SDLOC']</t>
+  </si>
+  <si>
+    <t>(ServD maps Practitioners and Organizations via another entity, so this concept is not available)&lt;br/&gt; However these are accessed via the Site.ServiceSite.ServiceSiteProvider record. (The Site has the location)</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.healthcareService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(HealthcareService)
+</t>
+  </si>
+  <si>
+    <t>The list of healthcare services that this worker provides for this role's Organization/Location(s)</t>
+  </si>
+  <si>
+    <t>The list of healthcare services that this worker provides for this role's Organization/Location(s).</t>
+  </si>
+  <si>
+    <t>EDU-2 / AFF-3</t>
+  </si>
+  <si>
+    <t>.player.QualifiedEntity[@classCode = 'QUAL'].code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details that are specific to the role/location/service</t>
+  </si>
+  <si>
+    <t>Contact details that are specific to the role/location/service.</t>
+  </si>
+  <si>
+    <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Times the Service Site is available</t>
+  </si>
+  <si>
+    <t>A collection of times the practitioner is available or performing this role at the location and/or healthcareservice.</t>
+  </si>
+  <si>
+    <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.daysOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>Indicates which days of the week are available between the start and end Times.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The days of the week.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.allDay</t>
+  </si>
+  <si>
+    <t>Always available? e.g. 24 hour service</t>
+  </si>
+  <si>
+    <t>Is this always available? (hence times are irrelevant) e.g. 24 hour service.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableStartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Opening time of day (ignored if allDay = true)</t>
+  </si>
+  <si>
+    <t>The opening time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
+  </si>
+  <si>
+    <t>The timezone is expected to be for where this HealthcareService is provided at.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableEndTime</t>
+  </si>
+  <si>
+    <t>Closing time of day (ignored if allDay = true)</t>
+  </si>
+  <si>
+    <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable</t>
+  </si>
+  <si>
+    <t>Not available during this time due to provided reason</t>
+  </si>
+  <si>
+    <t>The practitioner is not available or performing this role during this period of time due to the provided reason.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.modifierExtension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.description</t>
+  </si>
+  <si>
+    <t>Reason presented to the user explaining why time not available</t>
+  </si>
+  <si>
+    <t>The reason that can be presented to the user as to why this time is not available.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.notAvailable.during</t>
+  </si>
+  <si>
+    <t>Service not available from this date</t>
+  </si>
+  <si>
+    <t>Service is not available (seasonally or for a public holiday) from this date.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availabilityExceptions</t>
+  </si>
+  <si>
+    <t>Description of availability exceptions</t>
+  </si>
+  <si>
+    <t>A description of site availability exceptions, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as details in the available Times and not available Times.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Endpoint)
+</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the practitioner with this role</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the practitioner with this role.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and ,ay also be different for practitioners too.++So the endpoint satisfies the need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -542,45 +919,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="15.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="75.79296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="186.2890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -784,7 +1161,7 @@
         <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>41</v>
@@ -796,16 +1173,16 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>40</v>
@@ -813,7 +1190,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -824,7 +1201,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -833,19 +1210,19 @@
         <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -895,13 +1272,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -924,7 +1301,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -935,7 +1312,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>40</v>
@@ -944,16 +1321,16 @@
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1004,19 +1381,19 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -1033,7 +1410,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1044,28 +1421,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1115,19 +1492,19 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -1144,7 +1521,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1155,7 +1532,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1167,16 +1544,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1202,13 +1579,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -1226,19 +1603,19 @@
         <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -1255,18 +1632,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -1278,16 +1655,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1337,25 +1714,25 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1366,11 +1743,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1389,16 +1766,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1448,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1466,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1477,11 +1854,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1500,16 +1877,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1547,19 +1924,19 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1571,13 +1948,13 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -1588,11 +1965,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1605,25 +1982,25 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -1660,19 +2037,19 @@
         <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1684,13 +2061,13 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -1701,7 +2078,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1709,7 +2086,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
@@ -1721,20 +2098,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -1783,10 +2160,10 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>42</v>
@@ -1795,23 +2172,2782 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>117</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM11">
+  <autoFilter ref="A1:AM36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1821,7 +4957,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI10">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/IG-Publisher/output/StructureDefinition-PractitionerRole.xlsx
+++ b/IG-Publisher/output/StructureDefinition-PractitionerRole.xlsx
@@ -517,7 +517,7 @@
     <t>Specific specialty associated with the agency.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/output/ValueSet-medical-specialty-provider.html</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -943,7 +943,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.42578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="100.37890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
